--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2516.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2516.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.545643925021786</v>
+        <v>1.649191975593567</v>
       </c>
       <c r="B1">
-        <v>3.514571571573168</v>
+        <v>2.517845869064331</v>
       </c>
       <c r="C1">
-        <v>3.975177384148633</v>
+        <v>2.709914922714233</v>
       </c>
       <c r="D1">
-        <v>2.122580700104523</v>
+        <v>3.045075654983521</v>
       </c>
       <c r="E1">
-        <v>2.210320320759608</v>
+        <v>3.545687198638916</v>
       </c>
     </row>
   </sheetData>
